--- a/俄罗斯方块设计.xlsx
+++ b/俄罗斯方块设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhuo.zhang\My Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidProject\project0\SquareBrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -404,7 +404,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,53 +448,58 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -779,7 +784,7 @@
   <dimension ref="F1:BA44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5:BA17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -790,18 +795,18 @@
   <sheetData>
     <row r="1" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U2" s="43"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="41"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="30"/>
     </row>
     <row r="3" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U3" s="39"/>
-      <c r="X3" s="38"/>
-      <c r="Z3" s="37"/>
-      <c r="AD3" s="40" t="s">
+      <c r="U3" s="29"/>
+      <c r="X3" s="28"/>
+      <c r="Z3" s="27"/>
+      <c r="AD3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AE3" s="34"/>
@@ -853,11 +858,11 @@
       <c r="T4" s="3">
         <v>13</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="37"/>
+      <c r="U4" s="29"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="27"/>
       <c r="AD4" s="34"/>
       <c r="AE4" s="34"/>
       <c r="AF4" s="34"/>
@@ -868,9 +873,9 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -882,34 +887,34 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="35"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="25"/>
       <c r="AD5" s="34"/>
       <c r="AE5" s="34"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="31"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="37"/>
     </row>
     <row r="6" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -922,12 +927,12 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="18"/>
@@ -941,22 +946,22 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="22"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -966,7 +971,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="28">
+      <c r="Q7" s="22">
         <v>102</v>
       </c>
       <c r="R7" s="2"/>
@@ -975,13 +980,13 @@
       <c r="U7" s="15"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="29"/>
+      <c r="AD7" s="23"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -991,16 +996,16 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="22"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="40"/>
     </row>
     <row r="8" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="3">
@@ -1016,7 +1021,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="28">
+      <c r="Q8" s="22">
         <v>103</v>
       </c>
       <c r="R8" s="2"/>
@@ -1041,16 +1046,16 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="23"/>
-      <c r="BA8" s="22"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="40"/>
     </row>
     <row r="9" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="3">
@@ -1065,10 +1070,10 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="28">
+      <c r="P9" s="22">
         <v>94</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="22">
         <v>104</v>
       </c>
       <c r="R9" s="2"/>
@@ -1086,23 +1091,23 @@
       <c r="AD9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23"/>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23"/>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="22"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="40"/>
     </row>
     <row r="10" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="3">
@@ -1141,16 +1146,16 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
-      <c r="AV10" s="23"/>
-      <c r="AW10" s="23"/>
-      <c r="AX10" s="23"/>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="23"/>
-      <c r="BA10" s="22"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="3">
@@ -1183,22 +1188,22 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="26"/>
+      <c r="AJ11" s="20"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="23"/>
-      <c r="AX11" s="23"/>
-      <c r="AY11" s="23"/>
-      <c r="AZ11" s="23"/>
-      <c r="BA11" s="22"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="40"/>
     </row>
     <row r="12" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="3">
@@ -1231,22 +1236,22 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="26"/>
+      <c r="AJ12" s="20"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="22"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="40"/>
     </row>
     <row r="13" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="3">
@@ -1279,22 +1284,22 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="26"/>
+      <c r="AJ13" s="20"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="23"/>
-      <c r="AW13" s="23"/>
-      <c r="AX13" s="23"/>
-      <c r="AY13" s="23"/>
-      <c r="AZ13" s="23"/>
-      <c r="BA13" s="22"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="40"/>
     </row>
     <row r="14" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="3">
@@ -1324,26 +1329,26 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="27"/>
+      <c r="AE14" s="21"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="26"/>
+      <c r="AJ14" s="20"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="22"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="3">
@@ -1353,11 +1358,11 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1382,16 +1387,16 @@
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="22"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="40"/>
     </row>
     <row r="16" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="3"/>
@@ -1428,16 +1433,16 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="22"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39"/>
+      <c r="AZ16" s="39"/>
+      <c r="BA16" s="40"/>
     </row>
     <row r="17" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="3"/>
@@ -1474,16 +1479,16 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="19"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="43"/>
     </row>
     <row r="18" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="3"/>
@@ -1739,24 +1744,24 @@
     </row>
     <row r="25" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="14"/>
@@ -1775,51 +1780,12 @@
     </row>
     <row r="26" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
     </row>
     <row r="27" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
     </row>
     <row r="28" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3">
         <v>1</v>
@@ -1866,17 +1832,17 @@
     </row>
     <row r="29" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
       <c r="AB29" s="3">
         <v>1</v>
       </c>
@@ -1905,17 +1871,17 @@
     </row>
     <row r="30" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
       <c r="AB30" s="3">
         <v>2</v>
       </c>
@@ -1940,17 +1906,17 @@
     </row>
     <row r="31" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
       <c r="AB31" s="3">
         <v>3</v>
       </c>
@@ -1979,17 +1945,17 @@
     </row>
     <row r="32" spans="6:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
       <c r="AB32" s="3">
         <v>4</v>
       </c>
@@ -2016,17 +1982,17 @@
     </row>
     <row r="33" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
       <c r="AB33" s="3">
         <v>5</v>
       </c>
@@ -2053,17 +2019,17 @@
     </row>
     <row r="34" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
       <c r="AB34" s="3">
         <v>6</v>
       </c>
@@ -2088,17 +2054,17 @@
     </row>
     <row r="35" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
       <c r="AB35" s="3">
         <v>7</v>
       </c>
@@ -2127,17 +2093,17 @@
     </row>
     <row r="36" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
       <c r="AB36" s="3">
         <v>8</v>
       </c>
@@ -2164,17 +2130,17 @@
     </row>
     <row r="37" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="3"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
       <c r="AB37" s="3">
         <v>9</v>
       </c>
@@ -2195,17 +2161,17 @@
     </row>
     <row r="38" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
       <c r="AB38" s="3">
         <v>10</v>
       </c>
@@ -2226,17 +2192,17 @@
     </row>
     <row r="39" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="3"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
       <c r="AB39" s="3">
         <v>11</v>
       </c>
@@ -2257,17 +2223,17 @@
     </row>
     <row r="40" spans="6:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
       <c r="AB40" s="3">
         <v>12</v>
       </c>
@@ -2292,17 +2258,17 @@
     </row>
     <row r="41" spans="6:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
       <c r="AB41" s="3">
         <v>13</v>
       </c>
@@ -2331,17 +2297,17 @@
     </row>
     <row r="42" spans="6:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
       <c r="AB42" s="3">
         <v>14</v>
       </c>
@@ -2366,31 +2332,31 @@
     </row>
     <row r="43" spans="6:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
     </row>
     <row r="44" spans="6:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="3"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
